--- a/biology/Botanique/Merremia_elmeri/Merremia_elmeri.xlsx
+++ b/biology/Botanique/Merremia_elmeri/Merremia_elmeri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Decalobanthus elmeri est une espèce de plantes de la famille des Convolvulaceae.
 </t>
@@ -511,11 +523,13 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a pour synonyme homotypique[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a pour synonyme homotypique :
 Merremia elmeri Merr., Univ. Calif. Publ. Bot. 15: 260 (1929).
-qui est le basionyme[2].
+qui est le basionyme.
 </t>
         </is>
       </c>
@@ -544,11 +558,13 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (8 mai 2020)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (8 mai 2020) :
 variété Decalobanthus elmeri var. glaberrimus (Ooststr.) A.R.Simões &amp; Staples
-Selon World Checklist of Selected Plant Families (WCSP)  (8 mai 2020)[2] :
+Selon World Checklist of Selected Plant Families (WCSP)  (8 mai 2020) :
 variété Decalobanthus elmeri var. elmeri
 variété Decalobanthus elmeri var. glaberrimus (Ooststr.) A.R.Simões &amp; Staples (2017)</t>
         </is>
